--- a/Rules/Classes/Druid.xlsx
+++ b/Rules/Classes/Druid.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Card D&amp;D\Classes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9FFD2D-FE0A-4B2A-902D-121D35738031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="The Druid" sheetId="1" r:id="rId1"/>
     <sheet name="Feypicked Companions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>The Druid</t>
   </si>
@@ -43,12 +37,6 @@
   </si>
   <si>
     <t>Features</t>
-  </si>
-  <si>
-    <t>Spell Slots per Spell Level</t>
-  </si>
-  <si>
-    <t>Druidic, Spellcasting, Druidic Origin</t>
   </si>
   <si>
     <t>Druidic Origin Feature</t>
@@ -222,12 +210,24 @@
   <si>
     <t>2*</t>
   </si>
+  <si>
+    <t>Strike x6</t>
+  </si>
+  <si>
+    <t>Cure Wounds x1</t>
+  </si>
+  <si>
+    <t>Any DRD level 1 spell x1</t>
+  </si>
+  <si>
+    <t>Druidic, Druidic Origin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -382,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -559,245 +559,168 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="B13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23">
         <v>20</v>
       </c>
@@ -809,104 +732,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02463685-DC34-484D-8CCE-8CFE475A9504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21">
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21">
       <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="P8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9">
         <v>16</v>
       </c>
@@ -917,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -935,7 +858,7 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -953,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="S9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T9">
         <v>12</v>
@@ -962,91 +885,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21">
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="I20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="I21" t="s">
         <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
